--- a/target/classes/BookSelenium.xlsx
+++ b/target/classes/BookSelenium.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>Depart Date</t>
   </si>
@@ -92,13 +92,28 @@
   </si>
   <si>
     <t>Soft bed with air conditioner</t>
+  </si>
+  <si>
+    <t>4/26/2021</t>
+  </si>
+  <si>
+    <t>4/27/2021</t>
+  </si>
+  <si>
+    <t>4/28/2021</t>
+  </si>
+  <si>
+    <t>4/29/2021</t>
+  </si>
+  <si>
+    <t>4/30/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,11 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +174,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,7 +528,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f ca="1">TODAY()+3</f>
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -536,7 +564,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f ca="1">TODAY()+4</f>
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -572,7 +600,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f ca="1">TODAY()+5</f>
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -608,7 +636,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f ca="1">TODAY()+6</f>
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -641,7 +669,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f ca="1">TODAY()+7</f>
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -662,7 +690,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()+8</f>
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -680,7 +708,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f ca="1">TODAY()+9</f>
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -704,7 +732,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f ca="1">TODAY()+10</f>
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -728,7 +756,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f ca="1">TODAY()+11</f>
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -752,7 +780,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f ca="1">TODAY()+12</f>
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -776,7 +804,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f ca="1">TODAY()+13</f>
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -800,7 +828,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f ca="1">TODAY()+14</f>
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -824,7 +852,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f ca="1">TODAY()+15</f>
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -848,7 +876,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f ca="1">TODAY()+16</f>
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -869,7 +897,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f ca="1">TODAY()+17</f>
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -890,7 +918,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f ca="1">TODAY()+18</f>
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -911,7 +939,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f ca="1">TODAY()+19</f>
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1000,7 +1028,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,8 +1058,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44311</v>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1047,8 +1075,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44312</v>
+      <c r="A3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1064,8 +1092,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44313</v>
+      <c r="A4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1081,8 +1109,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>44314</v>
+      <c r="A5" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1098,8 +1126,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44315</v>
+      <c r="A6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1115,8 +1143,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44316</v>
+      <c r="A7" s="5">
+        <v>44201</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1132,8 +1160,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44317</v>
+      <c r="A8" s="4">
+        <v>44232</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1149,8 +1177,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>44318</v>
+      <c r="A9" s="4">
+        <v>44260</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1166,8 +1194,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44319</v>
+      <c r="A10" s="4">
+        <v>44291</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1183,8 +1211,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44320</v>
+      <c r="A11" s="4">
+        <v>44321</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1200,8 +1228,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44321</v>
+      <c r="A12" s="4">
+        <v>44352</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1217,8 +1245,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44322</v>
+      <c r="A13" s="4">
+        <v>44382</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1234,8 +1262,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44323</v>
+      <c r="A14" s="4">
+        <v>44413</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1251,8 +1279,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44324</v>
+      <c r="A15" s="4">
+        <v>44444</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1268,8 +1296,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44325</v>
+      <c r="A16" s="4">
+        <v>44474</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1285,8 +1313,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44326</v>
+      <c r="A17" s="4">
+        <v>44505</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1302,8 +1330,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44327</v>
+      <c r="A18" s="4">
+        <v>44535</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1320,5 +1348,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/BookSelenium.xlsx
+++ b/target/classes/BookSelenium.xlsx
@@ -130,10 +130,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
